--- a/tut05/output/0401CS37.xlsx
+++ b/tut05/output/0401CS37.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.918367346938775</v>
+        <v>6.92</v>
       </c>
       <c r="C6" t="n">
-        <v>6.090909090909091</v>
+        <v>6.09</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>7.212765957446808</v>
+        <v>7.21</v>
       </c>
       <c r="F6" t="n">
-        <v>7.071428571428571</v>
+        <v>7.07</v>
       </c>
       <c r="G6" t="n">
-        <v>7.175</v>
+        <v>7.17</v>
       </c>
       <c r="H6" t="n">
-        <v>8.146341463414634</v>
+        <v>8.15</v>
       </c>
       <c r="I6" t="n">
         <v>7.8</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.918367346938775</v>
+        <v>6.92</v>
       </c>
       <c r="C8" t="n">
-        <v>6.526881720430108</v>
+        <v>6.53</v>
       </c>
       <c r="D8" t="n">
-        <v>6.676470588235294</v>
+        <v>6.68</v>
       </c>
       <c r="E8" t="n">
-        <v>6.814207650273224</v>
+        <v>6.81</v>
       </c>
       <c r="F8" t="n">
-        <v>6.862222222222222</v>
+        <v>6.86</v>
       </c>
       <c r="G8" t="n">
-        <v>6.909433962264151</v>
+        <v>6.91</v>
       </c>
       <c r="H8" t="n">
-        <v>7.07516339869281</v>
+        <v>7.08</v>
       </c>
       <c r="I8" t="n">
-        <v>7.158959537572255</v>
+        <v>7.16</v>
       </c>
     </row>
   </sheetData>
